--- a/Mekanisk produktanalyse/Projekt 2/Film/AnalyseOgTrackerData.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/Film/AnalyseOgTrackerData.xlsx
@@ -5,20 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\Mekanisk produktanalyse\Projekt 2\Film\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s224870_dtu_dk/Documents/Skrivebord/DTU-projekter/Mekanisk produktanalyse/Projekt 2/Film/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF753F7E-9BF5-4DF5-A698-950D07E92F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{BF753F7E-9BF5-4DF5-A698-950D07E92F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC6C2771-62A7-404E-8E4A-9F8321AE9ED5}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="570" windowWidth="13973" windowHeight="14430" xr2:uid="{82D7ECE5-7680-4996-BBC4-E1C76DA2FCFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15840" xr2:uid="{82D7ECE5-7680-4996-BBC4-E1C76DA2FCFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Korte film kronologisk HD" sheetId="4" r:id="rId1"/>
-    <sheet name="kastelængde fra videoer" sheetId="1" r:id="rId2"/>
-    <sheet name="1 eller 2 elastikker slowmodata" sheetId="2" r:id="rId3"/>
-    <sheet name="4 elastikker slowmo data" sheetId="3" r:id="rId4"/>
+    <sheet name="Ark1" sheetId="5" r:id="rId2"/>
+    <sheet name="kastelængde fra videoer" sheetId="1" r:id="rId3"/>
+    <sheet name="1 eller 2 elastikker slowmodata" sheetId="2" r:id="rId4"/>
+    <sheet name="4 elastikker slowmo data" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="177">
   <si>
     <t>video 1</t>
   </si>
@@ -569,15 +573,51 @@
   </si>
   <si>
     <t>fejlafskud</t>
+  </si>
+  <si>
+    <t>Hoplængde [m]</t>
+  </si>
+  <si>
+    <t>flyvetid [s]</t>
+  </si>
+  <si>
+    <t>vx gns [m/s]</t>
+  </si>
+  <si>
+    <t>Kolonnemærkater</t>
+  </si>
+  <si>
+    <t>Rækkemærkater</t>
+  </si>
+  <si>
+    <t>Gennemsnit af Hoplængde [m]</t>
+  </si>
+  <si>
+    <t>Antal af Filnavn</t>
+  </si>
+  <si>
+    <t>Antal forsøg</t>
+  </si>
+  <si>
+    <t>Gennemsnit Hoplængde</t>
+  </si>
+  <si>
+    <t>% afvigelse</t>
+  </si>
+  <si>
+    <t>Afvigelse fra gns.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -661,13 +701,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
@@ -675,23 +716,59 @@
     <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
-    <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="5">
+    <cellStyle name="40 % - Farve3" xfId="2" builtinId="39"/>
+    <cellStyle name="60 % - Farve4" xfId="3" builtinId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Procent" xfId="4" builtinId="5"/>
+    <cellStyle name="Ugyldig" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -702,6 +779,544 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bruger" refreshedDate="44948.600496643521" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="37" xr:uid="{E923B2D2-EE98-4E2D-B4CC-DFD1F61D1236}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G38" sheet="Ark1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Filnavn" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Hopstørelse" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Kort"/>
+        <s v="Lang"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Hoplængde [m]" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.06" maxValue="3.53"/>
+    </cacheField>
+    <cacheField name="flyvetid [s]" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.28000000000000003" maxValue="0.55000000000000004"/>
+    </cacheField>
+    <cacheField name="vx gns [m/s]" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.7857142857142856" maxValue="6.8936170212765964"/>
+    </cacheField>
+    <cacheField name="v2 calc" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.8713040708812763" maxValue="9.5731379606794125"/>
+    </cacheField>
+    <cacheField name="Antal elastik" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="6" count="4">
+        <n v="2"/>
+        <s v="fejlafskud"/>
+        <n v="4"/>
+        <n v="6"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="37">
+  <r>
+    <s v="HD_01_20230119_122546"/>
+    <x v="0"/>
+    <n v="1.22"/>
+    <n v="0.32"/>
+    <n v="3.8125"/>
+    <n v="5.3916892065474249"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="HD_02_20230119_122640"/>
+    <x v="0"/>
+    <n v="1.89"/>
+    <n v="0.39"/>
+    <n v="4.8461538461538458"/>
+    <n v="6.853496494577306"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="HD_03_20230119_122653"/>
+    <x v="0"/>
+    <n v="1.92"/>
+    <n v="0.39"/>
+    <n v="4.9230769230769225"/>
+    <n v="6.9622821532213894"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="HD_04_20230119_122755"/>
+    <x v="0"/>
+    <n v="1.1399999999999999"/>
+    <n v="0.3"/>
+    <n v="3.8"/>
+    <n v="5.3740115370177604"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="HD_05_20230119_122822"/>
+    <x v="0"/>
+    <n v="1.75"/>
+    <n v="0.38"/>
+    <n v="4.6052631578947372"/>
+    <n v="6.5128256161918854"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="HD_06_20230119_122840"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="0.4"/>
+    <n v="5"/>
+    <n v="7.0710678118654746"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="HD_07_20230119_123117"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="0.39"/>
+    <n v="5"/>
+    <n v="7.0710678118654746"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="HD_08_20230119_123138"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="0.41"/>
+    <n v="4.8780487804878048"/>
+    <n v="6.8986027432833898"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="HD_09_20230119_123154"/>
+    <x v="0"/>
+    <n v="2.0099999999999998"/>
+    <n v="0.41"/>
+    <n v="4.9024390243902438"/>
+    <n v="6.9330957569998066"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="HD_10_20230119_123329"/>
+    <x v="0"/>
+    <n v="1.96"/>
+    <n v="0.4"/>
+    <n v="4.8999999999999995"/>
+    <n v="6.9296464556281645"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="HD_11_20230119_123556"/>
+    <x v="1"/>
+    <n v="1.06"/>
+    <n v="0.28000000000000003"/>
+    <n v="3.7857142857142856"/>
+    <n v="4.8713040708812763"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="HD_12_20230119_123608"/>
+    <x v="1"/>
+    <n v="1.65"/>
+    <n v="0.34"/>
+    <n v="4.8529411764705879"/>
+    <n v="6.2445684815403704"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="HD_13_20230119_123628"/>
+    <x v="1"/>
+    <n v="1.67"/>
+    <n v="0.35"/>
+    <n v="4.7714285714285714"/>
+    <n v="6.1396813572616837"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="HD_14_20230119_123644"/>
+    <x v="1"/>
+    <n v="1.68"/>
+    <n v="0.35"/>
+    <n v="4.8"/>
+    <n v="6.1764459162872027"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="HD_15_20230119_123655"/>
+    <x v="1"/>
+    <n v="1.68"/>
+    <n v="0.35"/>
+    <n v="4.8"/>
+    <n v="6.1764459162872027"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="HD_16_20230119_123713"/>
+    <x v="1"/>
+    <n v="1.57"/>
+    <n v="0.33"/>
+    <n v="4.7575757575757578"/>
+    <n v="6.1218561165220384"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="HD_17_20230119_123727"/>
+    <x v="1"/>
+    <n v="1.72"/>
+    <n v="0.34"/>
+    <n v="5.0588235294117645"/>
+    <n v="6.5094895686360221"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="HD_18_20230119_124502"/>
+    <x v="1"/>
+    <n v="2.75"/>
+    <n v="0.44"/>
+    <n v="6.25"/>
+    <n v="8.0422472868322963"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HD_19_20230119_124539"/>
+    <x v="1"/>
+    <n v="3.3"/>
+    <n v="0.48"/>
+    <n v="6.875"/>
+    <n v="8.8464720155155252"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HD_20_20230119_124609"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="0.46"/>
+    <n v="6.5217391304347823"/>
+    <n v="8.3919102123467422"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HD_21_20230119_124623"/>
+    <x v="1"/>
+    <n v="2.85"/>
+    <n v="0.45"/>
+    <n v="6.333333333333333"/>
+    <n v="8.1494772506567266"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HD_22_20230119_124639"/>
+    <x v="1"/>
+    <n v="2.65"/>
+    <n v="0.43"/>
+    <n v="6.1627906976744189"/>
+    <n v="7.9300298828299844"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HD_23_20230119_124701"/>
+    <x v="1"/>
+    <n v="2.84"/>
+    <n v="0.43"/>
+    <n v="6.6046511627906979"/>
+    <n v="8.4985980631083606"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HD_24_20230119_124716"/>
+    <x v="1"/>
+    <n v="2.89"/>
+    <n v="0.45"/>
+    <n v="6.4222222222222225"/>
+    <n v="8.2638558787361198"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HD_25_20230119_124732"/>
+    <x v="1"/>
+    <n v="3.24"/>
+    <n v="0.47"/>
+    <n v="6.8936170212765964"/>
+    <n v="8.8704276457316222"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HD_26_20230119_124754"/>
+    <x v="1"/>
+    <n v="2.5"/>
+    <n v="0.42"/>
+    <n v="5.9523809523809526"/>
+    <n v="7.6592831303164726"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HD_27_20230119_124814"/>
+    <x v="1"/>
+    <n v="2.88"/>
+    <n v="0.45"/>
+    <n v="6.3999999999999995"/>
+    <n v="8.2352612217162697"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HD_28_20230119_124827"/>
+    <x v="1"/>
+    <n v="2.02"/>
+    <n v="0.38"/>
+    <n v="5.3157894736842106"/>
+    <n v="6.8401429555373632"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="HD_29_20230119_124853"/>
+    <x v="1"/>
+    <n v="2.85"/>
+    <n v="0.44"/>
+    <n v="6.4772727272727275"/>
+    <n v="8.3346926427171066"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HD_30_20230119_125002"/>
+    <x v="0"/>
+    <n v="2.95"/>
+    <n v="0.49"/>
+    <n v="6.0204081632653068"/>
+    <n v="8.5141428755114905"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HD_31_20230119_125026"/>
+    <x v="0"/>
+    <n v="2.73"/>
+    <n v="0.47"/>
+    <n v="5.8085106382978724"/>
+    <n v="8.2144745218692545"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HD_32_20230119_125042"/>
+    <x v="0"/>
+    <n v="3.4"/>
+    <n v="0.53"/>
+    <n v="6.415094339622641"/>
+    <n v="9.0723134189972114"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HD_33_20230119_125058"/>
+    <x v="0"/>
+    <n v="2.7"/>
+    <n v="0.47"/>
+    <n v="5.7446808510638308"/>
+    <n v="8.1242055710794823"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HD_34_20230119_125120"/>
+    <x v="0"/>
+    <n v="3.38"/>
+    <n v="0.53"/>
+    <n v="6.3773584905660377"/>
+    <n v="9.0189468694736998"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HD_35_20230119_125135"/>
+    <x v="0"/>
+    <n v="3.47"/>
+    <n v="0.53"/>
+    <n v="6.5471698113207548"/>
+    <n v="9.2590963423295083"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HD_36_20230119_125149"/>
+    <x v="0"/>
+    <n v="3.52"/>
+    <n v="0.52"/>
+    <n v="6.7692307692307692"/>
+    <n v="9.5731379606794125"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="HD_37_20230119_125211"/>
+    <x v="0"/>
+    <n v="3.53"/>
+    <n v="0.55000000000000004"/>
+    <n v="6.4181818181818171"/>
+    <n v="9.0766797730491344"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1CCFEAC1-4BB3-447E-B57F-C126323E1CB6}" name="Pivottabel1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Værdier" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M4:O9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Gennemsnit af Hoplængde [m]" fld="2" subtotal="average" baseField="6" baseItem="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3514B65E-457B-488F-A329-8A2A806A65DA}" name="Pivottabel2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Værdier" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Q4:S9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Antal af Filnavn" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="3">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -721,7 +1336,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1017,21 +1632,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC915457-4E30-4B15-93C6-AD6C55E9FEE3}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.796875" customWidth="1"/>
-    <col min="2" max="2" width="11.46484375" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -1054,7 +1677,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>159</v>
       </c>
@@ -1064,300 +1687,488 @@
       <c r="E2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>1.22</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>0.32</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <f>C3/D3</f>
         <v>3.8125</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <f>E3/COS((45/360)*(2*PI()))</f>
         <v>5.3916892065474249</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I3" s="15">
+        <f>'Ark1'!C2-$N$6</f>
+        <v>-0.63555555555555543</v>
+      </c>
+      <c r="J3" s="16">
+        <f>I3/$N$6</f>
+        <v>-0.34251497005988019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>118</v>
       </c>
       <c r="B4" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>1.89</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>0.39</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <f t="shared" ref="E4:E39" si="0">C4/D4</f>
         <v>4.8461538461538458</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <f t="shared" ref="F4:F12" si="1">E4/COS((45/360)*(2*PI()))</f>
         <v>6.853496494577306</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I4" s="15">
+        <f>'Ark1'!C3-$N$6</f>
+        <v>3.44444444444445E-2</v>
+      </c>
+      <c r="J4" s="16">
+        <f>I4/$N$6</f>
+        <v>1.8562874251497039E-2</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
       <c r="B5" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>1.92</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>0.39</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
         <v>4.9230769230769225</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f t="shared" si="1"/>
         <v>6.9622821532213894</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
+      <c r="I5" s="15">
+        <f>'Ark1'!C4-$N$6</f>
+        <v>6.4444444444444526E-2</v>
+      </c>
+      <c r="J5" s="16">
+        <f>I5/$N$6</f>
+        <v>3.4730538922155739E-2</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>1.1399999999999999</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>0.3</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <f t="shared" si="1"/>
         <v>5.3740115370177604</v>
       </c>
       <c r="G6" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="M6" s="13">
+        <v>2</v>
+      </c>
+      <c r="N6" s="14">
+        <v>1.8555555555555554</v>
+      </c>
+      <c r="O6" s="14">
+        <v>1.06</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>2</v>
+      </c>
+      <c r="R6" s="14">
+        <v>9</v>
+      </c>
+      <c r="S6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>121</v>
       </c>
       <c r="B7" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>1.75</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>0.38</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>4.6052631578947372</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
         <v>6.5128256161918854</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I7" s="15">
+        <f>'Ark1'!C6-$N$6</f>
+        <v>-0.1055555555555554</v>
+      </c>
+      <c r="J7" s="16">
+        <f>I7/$N$6</f>
+        <v>-5.6886227544910101E-2</v>
+      </c>
+      <c r="M7" s="13">
+        <v>4</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14">
+        <v>1.6616666666666668</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>4</v>
+      </c>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>122</v>
       </c>
       <c r="B8" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>0.4</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <f t="shared" si="1"/>
         <v>7.0710678118654746</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I8" s="15">
+        <f>'Ark1'!C7-$N$6</f>
+        <v>0.1444444444444446</v>
+      </c>
+      <c r="J8" s="16">
+        <f>I8/$N$6</f>
+        <v>7.7844311377245595E-2</v>
+      </c>
+      <c r="M8" s="13">
+        <v>6</v>
+      </c>
+      <c r="N8" s="14">
+        <v>3.21</v>
+      </c>
+      <c r="O8" s="14">
+        <v>2.8863636363636367</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>6</v>
+      </c>
+      <c r="R8" s="14">
+        <v>8</v>
+      </c>
+      <c r="S8" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
       <c r="B9" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>1.95</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>0.39</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <f t="shared" si="1"/>
         <v>7.0710678118654746</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I9" s="15">
+        <f>'Ark1'!C8-$N$6</f>
+        <v>9.4444444444444553E-2</v>
+      </c>
+      <c r="J9" s="16">
+        <f>I9/$N$6</f>
+        <v>5.0898203592814432E-2</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="N9" s="14">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="O9" s="14">
+        <v>2.02</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="R9" s="14">
+        <v>1</v>
+      </c>
+      <c r="S9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>124</v>
       </c>
       <c r="B10" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>0.41</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>4.8780487804878048</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <f t="shared" si="1"/>
         <v>6.8986027432833898</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I10" s="15">
+        <f>'Ark1'!C9-$N$6</f>
+        <v>0.1444444444444446</v>
+      </c>
+      <c r="J10" s="16">
+        <f>I10/$N$6</f>
+        <v>7.7844311377245595E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>125</v>
       </c>
       <c r="B11" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>2.0099999999999998</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>0.41</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>4.9024390243902438</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <f t="shared" si="1"/>
         <v>6.9330957569998066</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I11" s="15">
+        <f>'Ark1'!C10-$N$6</f>
+        <v>0.15444444444444438</v>
+      </c>
+      <c r="J11" s="16">
+        <f>I11/$N$6</f>
+        <v>8.3233532934131715E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
       <c r="B12" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>1.96</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>0.4</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>4.8999999999999995</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <f t="shared" si="1"/>
         <v>6.9296464556281645</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I12" s="15">
+        <f>'Ark1'!C11-$N$6</f>
+        <v>0.10444444444444456</v>
+      </c>
+      <c r="J12" s="16">
+        <f>I12/$N$6</f>
+        <v>5.6287425149700664E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>127</v>
       </c>
       <c r="B13" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>1.06</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>3.7857142857142856</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="7">
         <f>E13/COS((39/360)*(2*PI()))</f>
         <v>4.8713040708812763</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
       <c r="B14" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>1.65</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>0.34</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>4.8529411764705879</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="7">
         <f t="shared" ref="F14:F31" si="2">E14/COS((39/360)*(2*PI()))</f>
         <v>6.2445684815403704</v>
       </c>
@@ -1365,24 +2176,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>129</v>
       </c>
       <c r="B15" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>1.67</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>0.35</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>4.7714285714285714</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <f t="shared" si="2"/>
         <v>6.1396813572616837</v>
       </c>
@@ -1390,24 +2201,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
       <c r="B16" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>1.68</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>0.35</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <f t="shared" si="2"/>
         <v>6.1764459162872027</v>
       </c>
@@ -1415,24 +2226,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>131</v>
       </c>
       <c r="B17" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>1.68</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <v>0.35</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <f t="shared" si="2"/>
         <v>6.1764459162872027</v>
       </c>
@@ -1440,24 +2251,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>132</v>
       </c>
       <c r="B18" t="s">
         <v>156</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>1.57</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <v>0.33</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <f t="shared" si="0"/>
         <v>4.7575757575757578</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <f t="shared" si="2"/>
         <v>6.1218561165220384</v>
       </c>
@@ -1465,24 +2276,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>133</v>
       </c>
       <c r="B19" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>1.72</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <v>0.34</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <f t="shared" si="0"/>
         <v>5.0588235294117645</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="7">
         <f t="shared" si="2"/>
         <v>6.5094895686360221</v>
       </c>
@@ -1490,24 +2301,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>134</v>
       </c>
       <c r="B20" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="7">
         <v>2.75</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>0.44</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="7">
         <f t="shared" si="2"/>
         <v>8.0422472868322963</v>
       </c>
@@ -1515,24 +2326,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>135</v>
       </c>
       <c r="B21" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>3.3</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>0.48</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <f t="shared" si="0"/>
         <v>6.875</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <f t="shared" si="2"/>
         <v>8.8464720155155252</v>
       </c>
@@ -1540,24 +2351,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>136</v>
       </c>
       <c r="B22" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>3</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>0.46</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <f t="shared" si="0"/>
         <v>6.5217391304347823</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <f t="shared" si="2"/>
         <v>8.3919102123467422</v>
       </c>
@@ -1565,24 +2376,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>137</v>
       </c>
       <c r="B23" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="7">
         <v>2.85</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="7">
         <v>0.45</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <f t="shared" si="0"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="7">
         <f t="shared" si="2"/>
         <v>8.1494772506567266</v>
       </c>
@@ -1590,24 +2401,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>138</v>
       </c>
       <c r="B24" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="7">
         <v>2.65</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="7">
         <v>0.43</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="7">
         <f t="shared" si="0"/>
         <v>6.1627906976744189</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="7">
         <f t="shared" si="2"/>
         <v>7.9300298828299844</v>
       </c>
@@ -1615,24 +2426,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>139</v>
       </c>
       <c r="B25" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <v>2.84</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="7">
         <v>0.43</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <f t="shared" si="0"/>
         <v>6.6046511627906979</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="7">
         <f t="shared" si="2"/>
         <v>8.4985980631083606</v>
       </c>
@@ -1640,24 +2451,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>140</v>
       </c>
       <c r="B26" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="7">
         <v>2.89</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="7">
         <v>0.45</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <f t="shared" si="0"/>
         <v>6.4222222222222225</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="7">
         <f t="shared" si="2"/>
         <v>8.2638558787361198</v>
       </c>
@@ -1665,24 +2476,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>141</v>
       </c>
       <c r="B27" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="7">
         <v>3.24</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="7">
         <v>0.47</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="7">
         <f t="shared" si="0"/>
         <v>6.8936170212765964</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="7">
         <f t="shared" si="2"/>
         <v>8.8704276457316222</v>
       </c>
@@ -1690,24 +2501,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>142</v>
       </c>
       <c r="B28" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="7">
         <v>2.5</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="7">
         <v>0.42</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="7">
         <f t="shared" si="0"/>
         <v>5.9523809523809526</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="7">
         <f t="shared" si="2"/>
         <v>7.6592831303164726</v>
       </c>
@@ -1715,24 +2526,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>143</v>
       </c>
       <c r="B29" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="7">
         <v>2.88</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="7">
         <v>0.45</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="7">
         <f t="shared" si="0"/>
         <v>6.3999999999999995</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="7">
         <f t="shared" si="2"/>
         <v>8.2352612217162697</v>
       </c>
@@ -1740,24 +2551,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="9">
         <v>2.02</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="9">
         <v>0.38</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="9">
         <f t="shared" si="0"/>
         <v>5.3157894736842106</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="9">
         <f t="shared" si="2"/>
         <v>6.8401429555373632</v>
       </c>
@@ -1765,24 +2576,24 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>145</v>
       </c>
       <c r="B31" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="7">
         <v>2.85</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="7">
         <v>0.44</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="7">
         <f t="shared" si="0"/>
         <v>6.4772727272727275</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="7">
         <f t="shared" si="2"/>
         <v>8.3346926427171066</v>
       </c>
@@ -1790,24 +2601,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>146</v>
       </c>
       <c r="B32" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="7">
         <v>2.95</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="7">
         <v>0.49</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="7">
         <f t="shared" si="0"/>
         <v>6.0204081632653068</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="7">
         <f t="shared" ref="F32:F39" si="3">E32/COS((45/360)*(2*PI()))</f>
         <v>8.5141428755114905</v>
       </c>
@@ -1815,24 +2626,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
       <c r="B33" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="7">
         <v>2.73</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="7">
         <v>0.47</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="7">
         <f t="shared" si="0"/>
         <v>5.8085106382978724</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="7">
         <f t="shared" si="3"/>
         <v>8.2144745218692545</v>
       </c>
@@ -1840,24 +2651,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>148</v>
       </c>
       <c r="B34" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="7">
         <v>3.4</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="7">
         <v>0.53</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="7">
         <f t="shared" si="0"/>
         <v>6.415094339622641</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="7">
         <f t="shared" si="3"/>
         <v>9.0723134189972114</v>
       </c>
@@ -1865,24 +2676,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>149</v>
       </c>
       <c r="B35" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="7">
         <v>2.7</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="7">
         <v>0.47</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="7">
         <f t="shared" si="0"/>
         <v>5.7446808510638308</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="7">
         <f t="shared" si="3"/>
         <v>8.1242055710794823</v>
       </c>
@@ -1890,24 +2701,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>150</v>
       </c>
       <c r="B36" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="7">
         <v>3.38</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="7">
         <v>0.53</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="7">
         <f t="shared" si="0"/>
         <v>6.3773584905660377</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="7">
         <f t="shared" si="3"/>
         <v>9.0189468694736998</v>
       </c>
@@ -1915,24 +2726,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>151</v>
       </c>
       <c r="B37" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="7">
         <v>3.47</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="7">
         <v>0.53</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="7">
         <f t="shared" si="0"/>
         <v>6.5471698113207548</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="7">
         <f t="shared" si="3"/>
         <v>9.2590963423295083</v>
       </c>
@@ -1940,24 +2751,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>152</v>
       </c>
       <c r="B38" t="s">
         <v>155</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="7">
         <v>3.52</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="7">
         <v>0.52</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="7">
         <f t="shared" si="0"/>
         <v>6.7692307692307692</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="7">
         <f t="shared" si="3"/>
         <v>9.5731379606794125</v>
       </c>
@@ -1965,24 +2776,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>153</v>
       </c>
       <c r="B39" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="7">
         <v>3.53</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="7">
         <f t="shared" si="0"/>
         <v>6.4181818181818171</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="7">
         <f t="shared" si="3"/>
         <v>9.0766797730491344</v>
       </c>
@@ -1992,11 +2803,991 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175AB3A1-CEA4-4FB1-93E2-29D23A032352}">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="23.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1.22</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="E2" s="7">
+        <f>C2/D2</f>
+        <v>3.8125</v>
+      </c>
+      <c r="F2" s="7">
+        <f>E2/COS((45/360)*(2*PI()))</f>
+        <v>5.3916892065474249</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1.89</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E38" si="0">C3/D3</f>
+        <v>4.8461538461538458</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F11" si="1">E3/COS((45/360)*(2*PI()))</f>
+        <v>6.853496494577306</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1.92</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9230769230769225</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="1"/>
+        <v>6.9622821532213894</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="1"/>
+        <v>5.3740115370177604</v>
+      </c>
+      <c r="G5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>4.6052631578947372</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="1"/>
+        <v>6.5128256161918854</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="1"/>
+        <v>7.0710678118654746</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1.95</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="1"/>
+        <v>7.0710678118654746</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>4.8780487804878048</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>6.8986027432833898</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9024390243902438</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="1"/>
+        <v>6.9330957569998066</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1.96</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="1"/>
+        <v>6.9296464556281645</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1.06</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7857142857142856</v>
+      </c>
+      <c r="F12" s="7">
+        <f>E12/COS((39/360)*(2*PI()))</f>
+        <v>4.8713040708812763</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.65</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>4.8529411764705879</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" ref="F13:F30" si="2">E13/COS((39/360)*(2*PI()))</f>
+        <v>6.2445684815403704</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>4.7714285714285714</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="2"/>
+        <v>6.1396813572616837</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.68</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="2"/>
+        <v>6.1764459162872027</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.68</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="2"/>
+        <v>6.1764459162872027</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1.57</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>4.7575757575757578</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="2"/>
+        <v>6.1218561165220384</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.72</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>5.0588235294117645</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="2"/>
+        <v>6.5094895686360221</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="2"/>
+        <v>8.0422472868322963</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
+        <v>6.875</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="2"/>
+        <v>8.8464720155155252</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
+        <v>6.5217391304347823</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="2"/>
+        <v>8.3919102123467422</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2.85</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="0"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="2"/>
+        <v>8.1494772506567266</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2.65</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="0"/>
+        <v>6.1627906976744189</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="2"/>
+        <v>7.9300298828299844</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2.84</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="0"/>
+        <v>6.6046511627906979</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="2"/>
+        <v>8.4985980631083606</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2.89</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
+        <v>6.4222222222222225</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="2"/>
+        <v>8.2638558787361198</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3.24</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="0"/>
+        <v>6.8936170212765964</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="2"/>
+        <v>8.8704276457316222</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="0"/>
+        <v>5.9523809523809526</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="2"/>
+        <v>7.6592831303164726</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2.88</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="0"/>
+        <v>6.3999999999999995</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="2"/>
+        <v>8.2352612217162697</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2.02</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.38</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>5.3157894736842106</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="2"/>
+        <v>6.8401429555373632</v>
+      </c>
+      <c r="G29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2.85</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="0"/>
+        <v>6.4772727272727275</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="2"/>
+        <v>8.3346926427171066</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2.95</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="0"/>
+        <v>6.0204081632653068</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" ref="F31:F38" si="3">E31/COS((45/360)*(2*PI()))</f>
+        <v>8.5141428755114905</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2.73</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="0"/>
+        <v>5.8085106382978724</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="3"/>
+        <v>8.2144745218692545</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="0"/>
+        <v>6.415094339622641</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="3"/>
+        <v>9.0723134189972114</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="0"/>
+        <v>5.7446808510638308</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="3"/>
+        <v>8.1242055710794823</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3.38</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="0"/>
+        <v>6.3773584905660377</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="3"/>
+        <v>9.0189468694736998</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="7">
+        <v>3.47</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="0"/>
+        <v>6.5471698113207548</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="3"/>
+        <v>9.2590963423295083</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="7">
+        <v>3.52</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="0"/>
+        <v>6.7692307692307692</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="3"/>
+        <v>9.5731379606794125</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="7">
+        <v>3.53</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="0"/>
+        <v>6.4181818181818171</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="3"/>
+        <v>9.0766797730491344</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4764132D-92FD-45B1-AA4D-0576EE0561D5}">
   <dimension ref="A1:F83"/>
   <sheetViews>
@@ -2004,14 +3795,14 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1328125" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -2025,7 +3816,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2039,7 +3830,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2050,7 +3841,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -2061,7 +3852,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2072,7 +3863,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -2083,7 +3874,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2094,7 +3885,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2105,7 +3896,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2116,7 +3907,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2127,7 +3918,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2138,7 +3929,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2149,7 +3940,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2160,7 +3951,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2171,7 +3962,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2182,7 +3973,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2193,7 +3984,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2204,7 +3995,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2215,7 +4006,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2226,7 +4017,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -2237,7 +4028,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2248,7 +4039,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2259,7 +4050,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2270,7 +4061,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -2281,7 +4072,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2292,7 +4083,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2303,7 +4094,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2314,7 +4105,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2325,7 +4116,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -2336,7 +4127,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -2347,7 +4138,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2358,7 +4149,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -2369,7 +4160,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -2380,7 +4171,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -2391,7 +4182,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -2402,7 +4193,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2413,7 +4204,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2424,7 +4215,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -2435,7 +4226,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -2446,7 +4237,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -2457,7 +4248,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2468,7 +4259,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -2479,7 +4270,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -2490,7 +4281,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -2501,7 +4292,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2512,7 +4303,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -2523,7 +4314,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2534,7 +4325,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -2545,7 +4336,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -2556,7 +4347,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -2567,7 +4358,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -2578,7 +4369,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -2589,7 +4380,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -2600,7 +4391,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -2611,7 +4402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2622,7 +4413,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2633,7 +4424,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -2644,7 +4435,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2655,7 +4446,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -2666,7 +4457,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -2677,7 +4468,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -2688,7 +4479,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -2699,7 +4490,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -2710,7 +4501,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -2721,7 +4512,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -2732,7 +4523,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>46</v>
       </c>
@@ -2743,7 +4534,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -2754,7 +4545,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -2765,7 +4556,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>44</v>
       </c>
@@ -2776,7 +4567,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -2787,7 +4578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>37</v>
       </c>
@@ -2798,7 +4589,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>54</v>
       </c>
@@ -2809,7 +4600,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>56</v>
       </c>
@@ -2820,7 +4611,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -2831,7 +4622,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -2842,7 +4633,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -2853,7 +4644,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>51</v>
       </c>
@@ -2864,7 +4655,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>36</v>
       </c>
@@ -2875,7 +4666,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>49</v>
       </c>
@@ -2886,7 +4677,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>52</v>
       </c>
@@ -2897,7 +4688,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>55</v>
       </c>
@@ -2908,7 +4699,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>57</v>
       </c>
@@ -2919,7 +4710,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>53</v>
       </c>
@@ -2941,7 +4732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2F7BA9-7E43-4B64-A840-3C7D9049BE5A}">
   <dimension ref="A1:AW34"/>
   <sheetViews>
@@ -2949,35 +4740,35 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -3054,7 +4845,7 @@
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>91</v>
@@ -3111,7 +4902,7 @@
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -3248,7 +5039,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -3325,7 +5116,7 @@
       <c r="AV4" s="3"/>
       <c r="AW4" s="3"/>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3.3333330000000001E-2</v>
       </c>
@@ -3432,7 +5223,7 @@
       <c r="AV5" s="3"/>
       <c r="AW5" s="3"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>6.6666669999999997E-2</v>
       </c>
@@ -3569,7 +5360,7 @@
         <v>10.578620000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.1</v>
       </c>
@@ -3706,7 +5497,7 @@
         <v>7.6183459999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0.13333329999999999</v>
       </c>
@@ -3843,7 +5634,7 @@
         <v>2.6713589999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.1666667</v>
       </c>
@@ -3980,7 +5771,7 @@
         <v>0.66800369999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.2</v>
       </c>
@@ -4117,7 +5908,7 @@
         <v>2.0528970000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0.23333329999999999</v>
       </c>
@@ -4254,7 +6045,7 @@
         <v>6.2557390000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0.26666669999999998</v>
       </c>
@@ -4391,7 +6182,7 @@
         <v>5.3486659999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0.3</v>
       </c>
@@ -4528,7 +6319,7 @@
         <v>4.3594030000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>0.3333333</v>
       </c>
@@ -4665,7 +6456,7 @@
         <v>6.5941280000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>0.36666670000000001</v>
       </c>
@@ -4802,7 +6593,7 @@
         <v>4.0277659999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>0.4</v>
       </c>
@@ -4939,7 +6730,7 @@
         <v>2.0419990000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.43333329999999998</v>
       </c>
@@ -5070,7 +6861,7 @@
       <c r="AV17" s="3"/>
       <c r="AW17" s="3"/>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>0.46666669999999999</v>
       </c>
@@ -5189,7 +6980,7 @@
       <c r="AV18" s="3"/>
       <c r="AW18" s="3"/>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.5</v>
       </c>
@@ -5287,7 +7078,7 @@
         <v>1.654574</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="K20" s="2">
         <v>0.53333330000000001</v>
       </c>
@@ -5370,7 +7161,7 @@
         <v>1.604196</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="K21" s="2">
         <v>0.56666669999999997</v>
       </c>
@@ -5453,18 +7244,18 @@
         <v>4.6154000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
       <c r="K22" s="2">
         <v>0.6</v>
       </c>
@@ -5547,16 +7338,16 @@
         <v>1.8852100000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
       <c r="K23" s="2">
         <v>0.63333329999999999</v>
       </c>
@@ -5639,16 +7430,16 @@
         <v>4.381259</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
       <c r="K24" s="5">
         <v>0.66666669999999995</v>
       </c>
@@ -5731,16 +7522,16 @@
         <v>2.3609619999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
       <c r="K25" s="2">
         <v>0.7</v>
       </c>
@@ -5817,16 +7608,16 @@
         <v>4.922059</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
       <c r="U26" s="2">
         <v>0.73333329999999997</v>
       </c>
@@ -5882,7 +7673,7 @@
         <v>0.53933830000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="U27" s="2">
         <v>0.76666670000000003</v>
       </c>
@@ -5938,7 +7729,7 @@
         <v>0.59011279999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="U28" s="2">
         <v>0.8</v>
       </c>
@@ -5994,7 +7785,7 @@
         <v>0.30306539999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="U29" s="2">
         <v>0.83333330000000005</v>
       </c>
@@ -6050,7 +7841,7 @@
         <v>0.6950016</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="U30" s="2">
         <v>0.86666670000000001</v>
       </c>
@@ -6106,7 +7897,7 @@
         <v>0.44664330000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="U31" s="2">
         <v>0.9</v>
       </c>
@@ -6162,7 +7953,7 @@
         <v>0.49857560000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="U32" s="2">
         <v>0.93333330000000003</v>
       </c>
@@ -6218,7 +8009,7 @@
         <v>0.1057545</v>
       </c>
     </row>
-    <row r="33" spans="21:39" x14ac:dyDescent="0.45">
+    <row r="33" spans="21:39" x14ac:dyDescent="0.25">
       <c r="U33" s="5">
         <v>0.96666669999999999</v>
       </c>
@@ -6262,7 +8053,7 @@
       <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
     </row>
-    <row r="34" spans="21:39" x14ac:dyDescent="0.45">
+    <row r="34" spans="21:39" x14ac:dyDescent="0.25">
       <c r="U34" s="2">
         <v>1</v>
       </c>
@@ -6302,7 +8093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060BE8FE-2F03-44C9-B551-4B52121F0F81}">
   <dimension ref="A1:BQ33"/>
   <sheetViews>
@@ -6310,26 +8101,26 @@
       <selection activeCell="BS17" sqref="BS17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="51" max="54" width="9" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="9" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="61" max="66" width="9" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="68" max="69" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -6436,7 +8227,7 @@
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>91</v>
@@ -6515,7 +8306,7 @@
       <c r="BP2" s="3"/>
       <c r="BQ2" s="3"/>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -6706,7 +8497,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -6813,7 +8604,7 @@
       <c r="BP4" s="3"/>
       <c r="BQ4" s="3"/>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3.3333330000000001E-2</v>
       </c>
@@ -6962,7 +8753,7 @@
       <c r="BP5" s="3"/>
       <c r="BQ5" s="3"/>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>6.6666669999999997E-2</v>
       </c>
@@ -7153,7 +8944,7 @@
         <v>6.4283169999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.1</v>
       </c>
@@ -7344,7 +9135,7 @@
         <v>5.1987199999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>0.13333329999999999</v>
       </c>
@@ -7535,7 +9326,7 @@
         <v>7.0980650000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.1666667</v>
       </c>
@@ -7726,7 +9517,7 @@
         <v>3.9855010000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.2</v>
       </c>
@@ -7917,7 +9708,7 @@
         <v>7.548108</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.23333329999999999</v>
       </c>
@@ -8108,7 +9899,7 @@
         <v>4.2528280000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.26666669999999998</v>
       </c>
@@ -8299,7 +10090,7 @@
         <v>4.6706190000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0.3</v>
       </c>
@@ -8478,7 +10269,7 @@
         <v>2.5169959999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>0.3333333</v>
       </c>
@@ -8639,7 +10430,7 @@
         <v>1.8732059999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="K15" s="3">
         <v>0.36666670000000001</v>
       </c>
@@ -8764,18 +10555,18 @@
         <v>2.599094</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
       <c r="U16" s="3">
         <v>0.4</v>
       </c>
@@ -8885,27 +10676,27 @@
         <v>7.2633320000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="K17" s="8" t="s">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="K17" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
       <c r="U17" s="3">
         <v>0.43333329999999998</v>
       </c>
@@ -9015,16 +10806,16 @@
         <v>3.388287</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
+    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
       <c r="U18" s="6">
         <v>0.46666669999999999</v>
       </c>
@@ -9128,7 +10919,7 @@
         <v>6.2453099999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
       <c r="U19" s="3">
         <v>0.5</v>
       </c>
@@ -9226,7 +11017,7 @@
         <v>3.4993910000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
       <c r="AO20" s="3">
         <v>0.53333330000000001</v>
       </c>
@@ -9303,7 +11094,7 @@
         <v>11.79594</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
       <c r="AO21" s="3">
         <v>0.56666669999999997</v>
       </c>
@@ -9374,7 +11165,7 @@
         <v>3.4187099999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
       <c r="AY22" s="3">
         <v>0.6</v>
       </c>
@@ -9430,7 +11221,7 @@
         <v>5.816033</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
       <c r="AY23" s="3">
         <v>0.63333329999999999</v>
       </c>
@@ -9486,7 +11277,7 @@
         <v>1.486434</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
       <c r="AY24" s="6">
         <v>0.66666669999999995</v>
       </c>
@@ -9542,7 +11333,7 @@
         <v>7.1947169999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
       <c r="AY25" s="3">
         <v>0.7</v>
       </c>
@@ -9598,7 +11389,7 @@
         <v>0.49344389999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
       <c r="AY26" s="3">
         <v>0.73333329999999997</v>
       </c>
@@ -9654,7 +11445,7 @@
         <v>0.72483790000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
       <c r="AY27" s="3">
         <v>0.76666670000000003</v>
       </c>
@@ -9710,7 +11501,7 @@
         <v>1.1932579999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
       <c r="AY28" s="3">
         <v>0.8</v>
       </c>
@@ -9766,7 +11557,7 @@
         <v>5.9119080000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
       <c r="AY29" s="3">
         <v>0.83333330000000005</v>
       </c>
@@ -9822,7 +11613,7 @@
         <v>2.1296780000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
       <c r="AY30" s="3">
         <v>0.86666670000000001</v>
       </c>
@@ -9878,7 +11669,7 @@
         <v>4.5319279999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
       <c r="AY31" s="3">
         <v>0.9</v>
       </c>
@@ -9934,7 +11725,7 @@
         <v>2.9109669999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
       <c r="AY32" s="3">
         <v>0.93333330000000003</v>
       </c>
@@ -9984,7 +11775,7 @@
         <v>4.9501869999999997</v>
       </c>
     </row>
-    <row r="33" spans="51:69" x14ac:dyDescent="0.45">
+    <row r="33" spans="51:69" x14ac:dyDescent="0.25">
       <c r="AY33" s="3">
         <v>0.96666669999999999</v>
       </c>

--- a/Mekanisk produktanalyse/Projekt 2/Film/AnalyseOgTrackerData.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/Film/AnalyseOgTrackerData.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s224870_dtu_dk/Documents/Skrivebord/DTU-projekter/Mekanisk produktanalyse/Projekt 2/Film/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{BF753F7E-9BF5-4DF5-A698-950D07E92F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC6C2771-62A7-404E-8E4A-9F8321AE9ED5}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="8_{BF753F7E-9BF5-4DF5-A698-950D07E92F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32794B86-41D1-467C-9CB1-F4BC45153456}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15840" xr2:uid="{82D7ECE5-7680-4996-BBC4-E1C76DA2FCFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Korte film kronologisk HD" sheetId="4" r:id="rId1"/>
-    <sheet name="Ark1" sheetId="5" r:id="rId2"/>
-    <sheet name="kastelængde fra videoer" sheetId="1" r:id="rId3"/>
-    <sheet name="1 eller 2 elastikker slowmodata" sheetId="2" r:id="rId4"/>
-    <sheet name="4 elastikker slowmo data" sheetId="3" r:id="rId5"/>
+    <sheet name="kastelængde fra videoer" sheetId="1" r:id="rId2"/>
+    <sheet name="1 eller 2 elastikker slowmodata" sheetId="2" r:id="rId3"/>
+    <sheet name="4 elastikker slowmo data" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -75,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="185">
   <si>
     <t>video 1</t>
   </si>
@@ -575,15 +574,6 @@
     <t>fejlafskud</t>
   </si>
   <si>
-    <t>Hoplængde [m]</t>
-  </si>
-  <si>
-    <t>flyvetid [s]</t>
-  </si>
-  <si>
-    <t>vx gns [m/s]</t>
-  </si>
-  <si>
     <t>Kolonnemærkater</t>
   </si>
   <si>
@@ -606,6 +596,39 @@
   </si>
   <si>
     <t>Afvigelse fra gns.</t>
+  </si>
+  <si>
+    <t>&lt; -25%</t>
+  </si>
+  <si>
+    <t>&gt; 25%</t>
+  </si>
+  <si>
+    <t>0% - 10%</t>
+  </si>
+  <si>
+    <t>10% - 25%</t>
+  </si>
+  <si>
+    <t>-25% - -10%</t>
+  </si>
+  <si>
+    <t>-10% - 0%</t>
+  </si>
+  <si>
+    <t>Antal elastikker</t>
+  </si>
+  <si>
+    <t>Rampelængde</t>
+  </si>
+  <si>
+    <t>Fejlsafskud = 2</t>
+  </si>
+  <si>
+    <t>Følsomhedsanalyse</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -619,7 +642,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,8 +683,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,8 +729,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -700,15 +749,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
@@ -719,49 +810,62 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="40 % - Farve3" xfId="2" builtinId="39"/>
     <cellStyle name="60 % - Farve4" xfId="3" builtinId="44"/>
+    <cellStyle name="60 % - Farve6" xfId="6" builtinId="52"/>
+    <cellStyle name="God" xfId="5" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Procent" xfId="4" builtinId="5"/>
     <cellStyle name="Ugyldig" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -779,6 +883,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1164,7 +1272,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1CCFEAC1-4BB3-447E-B57F-C126323E1CB6}" name="Pivottabel1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Værdier" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1CCFEAC1-4BB3-447E-B57F-C126323E1CB6}" name="Pivottabel1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Værdier" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M4:O9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -1221,7 +1329,7 @@
     <dataField name="Gennemsnit af Hoplængde [m]" fld="2" subtotal="average" baseField="6" baseItem="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -1242,7 +1350,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3514B65E-457B-488F-A329-8A2A806A65DA}" name="Pivottabel2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Værdier" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3514B65E-457B-488F-A329-8A2A806A65DA}" name="Pivottabel2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Værdier" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Q4:S9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -1299,7 +1407,7 @@
     <dataField name="Antal af Filnavn" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -1632,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC915457-4E30-4B15-93C6-AD6C55E9FEE3}">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:AC39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,16 +1753,17 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="13" max="13" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12" style="24" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="24"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
     <col min="14" max="14" width="17.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.42578125" customWidth="1"/>
-    <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="15" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="29" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -1673,11 +1782,11 @@
       <c r="F1" t="s">
         <v>163</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="24" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>159</v>
       </c>
@@ -1687,20 +1796,20 @@
       <c r="E2" t="s">
         <v>161</v>
       </c>
-      <c r="I2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J2" t="s">
-        <v>175</v>
+      <c r="I2" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>172</v>
       </c>
       <c r="M2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -1721,19 +1830,22 @@
         <f>E3/COS((45/360)*(2*PI()))</f>
         <v>5.3916892065474249</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="25">
         <v>2</v>
       </c>
-      <c r="I3" s="15">
-        <f>'Ark1'!C2-$N$6</f>
+      <c r="I3" s="26">
+        <f>C3-$N$6</f>
         <v>-0.63555555555555543</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="27">
         <f>I3/$N$6</f>
         <v>-0.34251497005988019</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -1754,31 +1866,37 @@
         <f t="shared" ref="F4:F12" si="1">E4/COS((45/360)*(2*PI()))</f>
         <v>6.853496494577306</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="25">
         <v>2</v>
       </c>
-      <c r="I4" s="15">
-        <f>'Ark1'!C3-$N$6</f>
+      <c r="I4" s="26">
+        <f t="shared" ref="I4:I12" si="2">C4-$N$6</f>
         <v>3.44444444444445E-2</v>
       </c>
-      <c r="J4" s="16">
-        <f>I4/$N$6</f>
+      <c r="J4" s="27">
+        <f t="shared" ref="J4:J12" si="3">I4/$N$6</f>
         <v>1.8562874251497039E-2</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="K4" s="15">
+        <v>1</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q4" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="Q4" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R4" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="U4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -1799,37 +1917,40 @@
         <f t="shared" si="1"/>
         <v>6.9622821532213894</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="25">
         <v>2</v>
       </c>
-      <c r="I5" s="15">
-        <f>'Ark1'!C4-$N$6</f>
+      <c r="I5" s="26">
+        <f t="shared" si="2"/>
         <v>6.4444444444444526E-2</v>
       </c>
-      <c r="J5" s="16">
-        <f>I5/$N$6</f>
+      <c r="J5" s="27">
+        <f t="shared" si="3"/>
         <v>3.4730538922155739E-2</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="N5" s="14" t="s">
+      <c r="K5" s="15">
+        <v>1</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="Q5" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="R5" s="14" t="s">
+      <c r="Q5" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="R5" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>120</v>
       </c>
@@ -1850,31 +1971,61 @@
         <f t="shared" si="1"/>
         <v>5.3740115370177604</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="M6" s="13">
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11">
         <v>2</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="12">
         <v>1.8555555555555554</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="12">
         <v>1.06</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="11">
         <v>2</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="12">
         <v>9</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U6" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="V6" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="W6" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="X6" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y6" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB6" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC6" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -1895,33 +2046,58 @@
         <f t="shared" si="1"/>
         <v>6.5128256161918854</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="25">
         <v>2</v>
       </c>
-      <c r="I7" s="15">
-        <f>'Ark1'!C6-$N$6</f>
+      <c r="I7" s="26">
+        <f t="shared" si="2"/>
         <v>-0.1055555555555554</v>
       </c>
-      <c r="J7" s="16">
-        <f>I7/$N$6</f>
+      <c r="J7" s="27">
+        <f t="shared" si="3"/>
         <v>-5.6886227544910101E-2</v>
       </c>
-      <c r="M7" s="13">
+      <c r="K7" s="15">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11">
         <v>4</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12">
         <v>1.6616666666666668</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="11">
         <v>4</v>
       </c>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14">
+      <c r="R7" s="12"/>
+      <c r="S7" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U7" t="s">
+        <v>155</v>
+      </c>
+      <c r="V7" s="22">
+        <v>2</v>
+      </c>
+      <c r="W7" s="16">
+        <f>K3</f>
+        <v>1</v>
+      </c>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16">
+        <f>K7</f>
+        <v>1</v>
+      </c>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16">
+        <f>K4+K5+K8+K9+K10+K11+K12</f>
+        <v>7</v>
+      </c>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -1942,37 +2118,59 @@
         <f t="shared" si="1"/>
         <v>7.0710678118654746</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="25">
         <v>2</v>
       </c>
-      <c r="I8" s="15">
-        <f>'Ark1'!C7-$N$6</f>
+      <c r="I8" s="26">
+        <f t="shared" si="2"/>
         <v>0.1444444444444446</v>
       </c>
-      <c r="J8" s="16">
-        <f>I8/$N$6</f>
+      <c r="J8" s="27">
+        <f t="shared" si="3"/>
         <v>7.7844311377245595E-2</v>
       </c>
-      <c r="M8" s="13">
+      <c r="K8" s="15">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11">
         <v>6</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="12">
         <v>3.21</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="12">
         <v>2.8863636363636367</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="11">
         <v>6</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="12">
         <v>8</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V8" s="22">
+        <v>6</v>
+      </c>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16">
+        <f>K33+K35</f>
+        <v>2</v>
+      </c>
+      <c r="Y8" s="16">
+        <f>K32</f>
+        <v>1</v>
+      </c>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16">
+        <f>K34+K36+K37+K38+K39</f>
+        <v>5</v>
+      </c>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -1993,37 +2191,72 @@
         <f t="shared" si="1"/>
         <v>7.0710678118654746</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="25">
         <v>2</v>
       </c>
-      <c r="I9" s="15">
-        <f>'Ark1'!C8-$N$6</f>
+      <c r="I9" s="26">
+        <f t="shared" si="2"/>
         <v>9.4444444444444553E-2</v>
       </c>
-      <c r="J9" s="16">
-        <f>I9/$N$6</f>
+      <c r="J9" s="27">
+        <f t="shared" si="3"/>
         <v>5.0898203592814432E-2</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="K9" s="15">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="12">
         <v>1.1399999999999999</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="12">
         <v>2.02</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="12">
         <v>1</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U9" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="V9" s="29"/>
+      <c r="W9" s="30">
+        <f>SUM(W7:W8)</f>
+        <v>1</v>
+      </c>
+      <c r="X9" s="30">
+        <f t="shared" ref="X9:AC9" si="4">SUM(X7:X8)</f>
+        <v>2</v>
+      </c>
+      <c r="Y9" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Z9" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="30">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="AB9" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -2044,19 +2277,31 @@
         <f t="shared" si="1"/>
         <v>6.8986027432833898</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="25">
         <v>2</v>
       </c>
-      <c r="I10" s="15">
-        <f>'Ark1'!C9-$N$6</f>
+      <c r="I10" s="26">
+        <f t="shared" si="2"/>
         <v>0.1444444444444446</v>
       </c>
-      <c r="J10" s="16">
-        <f>I10/$N$6</f>
+      <c r="J10" s="27">
+        <f t="shared" si="3"/>
         <v>7.7844311377245595E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K10" s="15">
+        <v>1</v>
+      </c>
+      <c r="U10" s="31"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -2077,19 +2322,31 @@
         <f t="shared" si="1"/>
         <v>6.9330957569998066</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="25">
         <v>2</v>
       </c>
-      <c r="I11" s="15">
-        <f>'Ark1'!C10-$N$6</f>
+      <c r="I11" s="26">
+        <f t="shared" si="2"/>
         <v>0.15444444444444438</v>
       </c>
-      <c r="J11" s="16">
-        <f>I11/$N$6</f>
+      <c r="J11" s="27">
+        <f t="shared" si="3"/>
         <v>8.3233532934131715E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K11" s="15">
+        <v>1</v>
+      </c>
+      <c r="U11" s="31"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -2110,19 +2367,49 @@
         <f t="shared" si="1"/>
         <v>6.9296464556281645</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="25">
         <v>2</v>
       </c>
-      <c r="I12" s="15">
-        <f>'Ark1'!C11-$N$6</f>
+      <c r="I12" s="26">
+        <f t="shared" si="2"/>
         <v>0.10444444444444456</v>
       </c>
-      <c r="J12" s="16">
-        <f>I12/$N$6</f>
+      <c r="J12" s="27">
+        <f t="shared" si="3"/>
         <v>5.6287425149700664E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K12" s="15">
+        <v>1</v>
+      </c>
+      <c r="U12" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="V12" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="W12" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y12" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB12" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC12" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -2143,15 +2430,40 @@
         <f>E13/COS((39/360)*(2*PI()))</f>
         <v>4.8713040708812763</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="24">
         <v>2</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="I13" s="26">
+        <f>C13-$O$6</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="27">
+        <f>I13/$O$6</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <v>1</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U13" t="s">
+        <v>156</v>
+      </c>
+      <c r="V13" s="22">
+        <v>2</v>
+      </c>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16">
+        <f>K13</f>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -2169,14 +2481,41 @@
         <v>4.8529411764705879</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" ref="F14:F31" si="2">E14/COS((39/360)*(2*PI()))</f>
+        <f t="shared" ref="F14:F31" si="5">E14/COS((39/360)*(2*PI()))</f>
         <v>6.2445684815403704</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="24">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I14" s="26">
+        <f>C14-$O$7</f>
+        <v>-1.1666666666666936E-2</v>
+      </c>
+      <c r="J14" s="27">
+        <f>I14/$O$7</f>
+        <v>-7.0210631895688677E-3</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1</v>
+      </c>
+      <c r="V14" s="22">
+        <v>4</v>
+      </c>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16">
+        <f>K14+K18</f>
+        <v>2</v>
+      </c>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16">
+        <f>K15+K16+K17+K19</f>
+        <v>4</v>
+      </c>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -2194,14 +2533,47 @@
         <v>4.7714285714285714</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.1396813572616837</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="24">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I15" s="26">
+        <f t="shared" ref="I15:I19" si="6">C15-$O$7</f>
+        <v>8.3333333333330817E-3</v>
+      </c>
+      <c r="J15" s="27">
+        <f t="shared" ref="J15:J19" si="7">I15/$O$7</f>
+        <v>5.0150451354060667E-3</v>
+      </c>
+      <c r="K15" s="15">
+        <v>1</v>
+      </c>
+      <c r="V15" s="22">
+        <v>6</v>
+      </c>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16">
+        <f>K28</f>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="16">
+        <f>K20+K23+K24+K25+K29+K31</f>
+        <v>6</v>
+      </c>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16">
+        <f>K26+K22</f>
+        <v>2</v>
+      </c>
+      <c r="AB15" s="16">
+        <f>K21+K27</f>
+        <v>2</v>
+      </c>
+      <c r="AC15" s="16"/>
+    </row>
+    <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -2219,14 +2591,57 @@
         <v>4.8</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.1764459162872027</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="24">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="26">
+        <f>C16-$O$7</f>
+        <v>1.8333333333333091E-2</v>
+      </c>
+      <c r="J16" s="27">
+        <f t="shared" si="7"/>
+        <v>1.1033099297893534E-2</v>
+      </c>
+      <c r="K16" s="15">
+        <v>1</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="V16" s="29"/>
+      <c r="W16" s="30">
+        <f>SUM(W13:W15)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="30">
+        <f t="shared" ref="X16:AC16" si="8">SUM(X13:X15)</f>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="30">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="Z16" s="30">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA16" s="30">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AB16" s="30">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AC16" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -2244,14 +2659,25 @@
         <v>4.8</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.1764459162872027</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="24">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" s="26">
+        <f t="shared" si="6"/>
+        <v>1.8333333333333091E-2</v>
+      </c>
+      <c r="J17" s="27">
+        <f t="shared" si="7"/>
+        <v>1.1033099297893534E-2</v>
+      </c>
+      <c r="K17" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -2269,14 +2695,28 @@
         <v>4.7575757575757578</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.1218561165220384</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="24">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" s="26">
+        <f t="shared" si="6"/>
+        <v>-9.1666666666666785E-2</v>
+      </c>
+      <c r="J18" s="27">
+        <f t="shared" si="7"/>
+        <v>-5.5165496489468467E-2</v>
+      </c>
+      <c r="K18" s="15">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -2294,14 +2734,25 @@
         <v>5.0588235294117645</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.5094895686360221</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="24">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" s="26">
+        <f t="shared" si="6"/>
+        <v>5.8333333333333126E-2</v>
+      </c>
+      <c r="J19" s="27">
+        <f t="shared" si="7"/>
+        <v>3.5105315947843399E-2</v>
+      </c>
+      <c r="K19" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -2319,14 +2770,25 @@
         <v>6.25</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.0422472868322963</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="26">
+        <f>C20-$O$8</f>
+        <v>-0.13636363636363669</v>
+      </c>
+      <c r="J20" s="27">
+        <f>I20/$O$8</f>
+        <v>-4.724409448818908E-2</v>
+      </c>
+      <c r="K20" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -2344,14 +2806,25 @@
         <v>6.875</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.8464720155155252</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" s="26">
+        <f t="shared" ref="I21:I29" si="9">C21-$O$8</f>
+        <v>0.41363636363636314</v>
+      </c>
+      <c r="J21" s="27">
+        <f t="shared" ref="J21:J31" si="10">I21/$O$8</f>
+        <v>0.14330708661417305</v>
+      </c>
+      <c r="K21" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -2369,14 +2842,25 @@
         <v>6.5217391304347823</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.3919102123467422</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" s="26">
+        <f t="shared" si="9"/>
+        <v>0.11363636363636331</v>
+      </c>
+      <c r="J22" s="27">
+        <f t="shared" si="10"/>
+        <v>3.9370078740157362E-2</v>
+      </c>
+      <c r="K22" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -2394,14 +2878,25 @@
         <v>6.333333333333333</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.1494772506567266</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" s="26">
+        <f t="shared" si="9"/>
+        <v>-3.6363636363636598E-2</v>
+      </c>
+      <c r="J23" s="27">
+        <f t="shared" si="10"/>
+        <v>-1.2598425196850473E-2</v>
+      </c>
+      <c r="K23" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -2419,14 +2914,25 @@
         <v>6.1627906976744189</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.9300298828299844</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" s="26">
+        <f t="shared" si="9"/>
+        <v>-0.23636363636363678</v>
+      </c>
+      <c r="J24" s="27">
+        <f t="shared" si="10"/>
+        <v>-8.1889763779527697E-2</v>
+      </c>
+      <c r="K24" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -2444,14 +2950,25 @@
         <v>6.6046511627906979</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.4985980631083606</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" s="26">
+        <f t="shared" si="9"/>
+        <v>-4.6363636363636829E-2</v>
+      </c>
+      <c r="J25" s="27">
+        <f t="shared" si="10"/>
+        <v>-1.6062992125984412E-2</v>
+      </c>
+      <c r="K25" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -2469,14 +2986,25 @@
         <v>6.4222222222222225</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.2638558787361198</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" s="26">
+        <f t="shared" si="9"/>
+        <v>3.6363636363634377E-3</v>
+      </c>
+      <c r="J26" s="27">
+        <f t="shared" si="10"/>
+        <v>1.2598425196849704E-3</v>
+      </c>
+      <c r="K26" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -2494,14 +3022,25 @@
         <v>6.8936170212765964</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.8704276457316222</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" s="26">
+        <f t="shared" si="9"/>
+        <v>0.35363636363636353</v>
+      </c>
+      <c r="J27" s="27">
+        <f t="shared" si="10"/>
+        <v>0.12251968503937002</v>
+      </c>
+      <c r="K27" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -2519,14 +3058,25 @@
         <v>5.9523809523809526</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.6592831303164726</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" s="26">
+        <f t="shared" si="9"/>
+        <v>-0.38636363636363669</v>
+      </c>
+      <c r="J28" s="27">
+        <f t="shared" si="10"/>
+        <v>-0.13385826771653553</v>
+      </c>
+      <c r="K28" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -2544,14 +3094,25 @@
         <v>6.3999999999999995</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.2352612217162697</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" s="26">
+        <f t="shared" si="9"/>
+        <v>-6.3636363636367932E-3</v>
+      </c>
+      <c r="J29" s="27">
+        <f t="shared" si="10"/>
+        <v>-2.2047244094489673E-3</v>
+      </c>
+      <c r="K29" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>144</v>
       </c>
@@ -2569,14 +3130,19 @@
         <v>5.3157894736842106</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.8401429555373632</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="24" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -2594,14 +3160,25 @@
         <v>6.4772727272727275</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.3346926427171066</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31" s="26">
+        <f t="shared" ref="I31" si="11">C31-$O$8</f>
+        <v>-3.6363636363636598E-2</v>
+      </c>
+      <c r="J31" s="27">
+        <f t="shared" si="10"/>
+        <v>-1.2598425196850473E-2</v>
+      </c>
+      <c r="K31" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -2619,14 +3196,25 @@
         <v>6.0204081632653068</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" ref="F32:F39" si="3">E32/COS((45/360)*(2*PI()))</f>
+        <f t="shared" ref="F32:F39" si="12">E32/COS((45/360)*(2*PI()))</f>
         <v>8.5141428755114905</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="26">
+        <f>C32-$N$8</f>
+        <v>-0.25999999999999979</v>
+      </c>
+      <c r="J32" s="28">
+        <f>I32/$N$8</f>
+        <v>-8.0996884735202432E-2</v>
+      </c>
+      <c r="K32" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -2644,14 +3232,25 @@
         <v>5.8085106382978724</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>8.2144745218692545</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33" s="26">
+        <f t="shared" ref="I33:I39" si="13">C33-$N$8</f>
+        <v>-0.48</v>
+      </c>
+      <c r="J33" s="28">
+        <f t="shared" ref="J33:J39" si="14">I33/$N$8</f>
+        <v>-0.14953271028037382</v>
+      </c>
+      <c r="K33" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -2669,14 +3268,25 @@
         <v>6.415094339622641</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>9.0723134189972114</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34" s="26">
+        <f t="shared" si="13"/>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="J34" s="28">
+        <f t="shared" si="14"/>
+        <v>5.9190031152647961E-2</v>
+      </c>
+      <c r="K34" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>149</v>
       </c>
@@ -2694,14 +3304,25 @@
         <v>5.7446808510638308</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>8.1242055710794823</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35" s="26">
+        <f t="shared" si="13"/>
+        <v>-0.50999999999999979</v>
+      </c>
+      <c r="J35" s="28">
+        <f t="shared" si="14"/>
+        <v>-0.15887850467289713</v>
+      </c>
+      <c r="K35" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -2719,14 +3340,25 @@
         <v>6.3773584905660377</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>9.0189468694736998</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36" s="26">
+        <f t="shared" si="13"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="J36" s="28">
+        <f t="shared" si="14"/>
+        <v>5.2959501557632377E-2</v>
+      </c>
+      <c r="K36" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>151</v>
       </c>
@@ -2744,14 +3376,25 @@
         <v>6.5471698113207548</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>9.2590963423295083</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37" s="26">
+        <f t="shared" si="13"/>
+        <v>0.26000000000000023</v>
+      </c>
+      <c r="J37" s="28">
+        <f t="shared" si="14"/>
+        <v>8.0996884735202571E-2</v>
+      </c>
+      <c r="K37" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -2769,14 +3412,25 @@
         <v>6.7692307692307692</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>9.5731379606794125</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38" s="26">
+        <f t="shared" si="13"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="J38" s="28">
+        <f t="shared" si="14"/>
+        <v>9.6573208722741458E-2</v>
+      </c>
+      <c r="K38" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>153</v>
       </c>
@@ -2794,11 +3448,22 @@
         <v>6.4181818181818171</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>9.0766797730491344</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="24">
         <v>6</v>
+      </c>
+      <c r="I39" s="26">
+        <f t="shared" si="13"/>
+        <v>0.31999999999999984</v>
+      </c>
+      <c r="J39" s="28">
+        <f t="shared" si="14"/>
+        <v>9.9688473520249177E-2</v>
+      </c>
+      <c r="K39" s="15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2808,986 +3473,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175AB3A1-CEA4-4FB1-93E2-29D23A032352}">
-  <dimension ref="A1:J38"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:S11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="23.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1.22</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E2" s="7">
-        <f>C2/D2</f>
-        <v>3.8125</v>
-      </c>
-      <c r="F2" s="7">
-        <f>E2/COS((45/360)*(2*PI()))</f>
-        <v>5.3916892065474249</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1.89</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="E3" s="7">
-        <f t="shared" ref="E3:E38" si="0">C3/D3</f>
-        <v>4.8461538461538458</v>
-      </c>
-      <c r="F3" s="7">
-        <f t="shared" ref="F3:F11" si="1">E3/COS((45/360)*(2*PI()))</f>
-        <v>6.853496494577306</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1.92</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" si="0"/>
-        <v>4.9230769230769225</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" si="1"/>
-        <v>6.9622821532213894</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="E5" s="9">
-        <f t="shared" si="0"/>
-        <v>3.8</v>
-      </c>
-      <c r="F5" s="9">
-        <f t="shared" si="1"/>
-        <v>5.3740115370177604</v>
-      </c>
-      <c r="G5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1.75</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>4.6052631578947372</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="1"/>
-        <v>6.5128256161918854</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="1"/>
-        <v>7.0710678118654746</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1.95</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="E8" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="1"/>
-        <v>7.0710678118654746</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="E9" s="7">
-        <f t="shared" si="0"/>
-        <v>4.8780487804878048</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="1"/>
-        <v>6.8986027432833898</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" si="0"/>
-        <v>4.9024390243902438</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="1"/>
-        <v>6.9330957569998066</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1.96</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="E11" s="7">
-        <f t="shared" si="0"/>
-        <v>4.8999999999999995</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" si="1"/>
-        <v>6.9296464556281645</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1.06</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E12" s="7">
-        <f t="shared" si="0"/>
-        <v>3.7857142857142856</v>
-      </c>
-      <c r="F12" s="7">
-        <f>E12/COS((39/360)*(2*PI()))</f>
-        <v>4.8713040708812763</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.65</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="E13" s="7">
-        <f t="shared" si="0"/>
-        <v>4.8529411764705879</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" ref="F13:F30" si="2">E13/COS((39/360)*(2*PI()))</f>
-        <v>6.2445684815403704</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="E14" s="7">
-        <f t="shared" si="0"/>
-        <v>4.7714285714285714</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" si="2"/>
-        <v>6.1396813572616837</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.68</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="E15" s="7">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" si="2"/>
-        <v>6.1764459162872027</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1.68</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="E16" s="7">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="2"/>
-        <v>6.1764459162872027</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1.57</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="E17" s="7">
-        <f t="shared" si="0"/>
-        <v>4.7575757575757578</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="2"/>
-        <v>6.1218561165220384</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1.72</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="E18" s="7">
-        <f t="shared" si="0"/>
-        <v>5.0588235294117645</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="2"/>
-        <v>6.5094895686360221</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2.75</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="E19" s="7">
-        <f t="shared" si="0"/>
-        <v>6.25</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" si="2"/>
-        <v>8.0422472868322963</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="E20" s="7">
-        <f t="shared" si="0"/>
-        <v>6.875</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" si="2"/>
-        <v>8.8464720155155252</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="E21" s="7">
-        <f t="shared" si="0"/>
-        <v>6.5217391304347823</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="shared" si="2"/>
-        <v>8.3919102123467422</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="7">
-        <v>2.85</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="E22" s="7">
-        <f t="shared" si="0"/>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="F22" s="7">
-        <f t="shared" si="2"/>
-        <v>8.1494772506567266</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2.65</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="E23" s="7">
-        <f t="shared" si="0"/>
-        <v>6.1627906976744189</v>
-      </c>
-      <c r="F23" s="7">
-        <f t="shared" si="2"/>
-        <v>7.9300298828299844</v>
-      </c>
-      <c r="G23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2.84</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="E24" s="7">
-        <f t="shared" si="0"/>
-        <v>6.6046511627906979</v>
-      </c>
-      <c r="F24" s="7">
-        <f t="shared" si="2"/>
-        <v>8.4985980631083606</v>
-      </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2.89</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="E25" s="7">
-        <f t="shared" si="0"/>
-        <v>6.4222222222222225</v>
-      </c>
-      <c r="F25" s="7">
-        <f t="shared" si="2"/>
-        <v>8.2638558787361198</v>
-      </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3.24</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="E26" s="7">
-        <f t="shared" si="0"/>
-        <v>6.8936170212765964</v>
-      </c>
-      <c r="F26" s="7">
-        <f t="shared" si="2"/>
-        <v>8.8704276457316222</v>
-      </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="E27" s="7">
-        <f t="shared" si="0"/>
-        <v>5.9523809523809526</v>
-      </c>
-      <c r="F27" s="7">
-        <f t="shared" si="2"/>
-        <v>7.6592831303164726</v>
-      </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="7">
-        <v>2.88</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="E28" s="7">
-        <f t="shared" si="0"/>
-        <v>6.3999999999999995</v>
-      </c>
-      <c r="F28" s="7">
-        <f t="shared" si="2"/>
-        <v>8.2352612217162697</v>
-      </c>
-      <c r="G28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="9">
-        <v>2.02</v>
-      </c>
-      <c r="D29" s="9">
-        <v>0.38</v>
-      </c>
-      <c r="E29" s="9">
-        <f t="shared" si="0"/>
-        <v>5.3157894736842106</v>
-      </c>
-      <c r="F29" s="9">
-        <f t="shared" si="2"/>
-        <v>6.8401429555373632</v>
-      </c>
-      <c r="G29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="7">
-        <v>2.85</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="E30" s="7">
-        <f t="shared" si="0"/>
-        <v>6.4772727272727275</v>
-      </c>
-      <c r="F30" s="7">
-        <f t="shared" si="2"/>
-        <v>8.3346926427171066</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" s="7">
-        <v>2.95</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="E31" s="7">
-        <f t="shared" si="0"/>
-        <v>6.0204081632653068</v>
-      </c>
-      <c r="F31" s="7">
-        <f t="shared" ref="F31:F38" si="3">E31/COS((45/360)*(2*PI()))</f>
-        <v>8.5141428755114905</v>
-      </c>
-      <c r="G31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>147</v>
-      </c>
-      <c r="B32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2.73</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="E32" s="7">
-        <f t="shared" si="0"/>
-        <v>5.8085106382978724</v>
-      </c>
-      <c r="F32" s="7">
-        <f t="shared" si="3"/>
-        <v>8.2144745218692545</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="D33" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="E33" s="7">
-        <f t="shared" si="0"/>
-        <v>6.415094339622641</v>
-      </c>
-      <c r="F33" s="7">
-        <f t="shared" si="3"/>
-        <v>9.0723134189972114</v>
-      </c>
-      <c r="G33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="D34" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="E34" s="7">
-        <f t="shared" si="0"/>
-        <v>5.7446808510638308</v>
-      </c>
-      <c r="F34" s="7">
-        <f t="shared" si="3"/>
-        <v>8.1242055710794823</v>
-      </c>
-      <c r="G34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="7">
-        <v>3.38</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="E35" s="7">
-        <f t="shared" si="0"/>
-        <v>6.3773584905660377</v>
-      </c>
-      <c r="F35" s="7">
-        <f t="shared" si="3"/>
-        <v>9.0189468694736998</v>
-      </c>
-      <c r="G35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="7">
-        <v>3.47</v>
-      </c>
-      <c r="D36" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="E36" s="7">
-        <f t="shared" si="0"/>
-        <v>6.5471698113207548</v>
-      </c>
-      <c r="F36" s="7">
-        <f t="shared" si="3"/>
-        <v>9.2590963423295083</v>
-      </c>
-      <c r="G36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>152</v>
-      </c>
-      <c r="B37" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="7">
-        <v>3.52</v>
-      </c>
-      <c r="D37" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="E37" s="7">
-        <f t="shared" si="0"/>
-        <v>6.7692307692307692</v>
-      </c>
-      <c r="F37" s="7">
-        <f t="shared" si="3"/>
-        <v>9.5731379606794125</v>
-      </c>
-      <c r="G37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="7">
-        <v>3.53</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E38" s="7">
-        <f t="shared" si="0"/>
-        <v>6.4181818181818171</v>
-      </c>
-      <c r="F38" s="7">
-        <f t="shared" si="3"/>
-        <v>9.0766797730491344</v>
-      </c>
-      <c r="G38">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4764132D-92FD-45B1-AA4D-0576EE0561D5}">
   <dimension ref="A1:F83"/>
   <sheetViews>
@@ -4732,7 +4417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2F7BA9-7E43-4B64-A840-3C7D9049BE5A}">
   <dimension ref="A1:AW34"/>
   <sheetViews>
@@ -7245,17 +6930,17 @@
       </c>
     </row>
     <row r="22" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
       <c r="K22" s="2">
         <v>0.6</v>
       </c>
@@ -7339,15 +7024,15 @@
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
       <c r="K23" s="2">
         <v>0.63333329999999999</v>
       </c>
@@ -7431,15 +7116,15 @@
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
       <c r="K24" s="5">
         <v>0.66666669999999995</v>
       </c>
@@ -7523,15 +7208,15 @@
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
       <c r="K25" s="2">
         <v>0.7</v>
       </c>
@@ -7609,15 +7294,15 @@
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
       <c r="U26" s="2">
         <v>0.73333329999999997</v>
       </c>
@@ -8093,7 +7778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060BE8FE-2F03-44C9-B551-4B52121F0F81}">
   <dimension ref="A1:BQ33"/>
   <sheetViews>
@@ -10556,17 +10241,17 @@
       </c>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
       <c r="U16" s="3">
         <v>0.4</v>
       </c>
@@ -10677,26 +10362,26 @@
       </c>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="K17" s="11" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="K17" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
       <c r="U17" s="3">
         <v>0.43333329999999998</v>
       </c>
@@ -10807,15 +10492,15 @@
       </c>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
       <c r="U18" s="6">
         <v>0.46666669999999999</v>
       </c>

--- a/Mekanisk produktanalyse/Projekt 2/Film/AnalyseOgTrackerData.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/Film/AnalyseOgTrackerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s224870_dtu_dk/Documents/Skrivebord/DTU-projekter/Mekanisk produktanalyse/Projekt 2/Film/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="8_{BF753F7E-9BF5-4DF5-A698-950D07E92F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32794B86-41D1-467C-9CB1-F4BC45153456}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="8_{BF753F7E-9BF5-4DF5-A698-950D07E92F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43E5C860-AFDC-4A35-BC4B-46379D4373E3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15840" xr2:uid="{82D7ECE5-7680-4996-BBC4-E1C76DA2FCFB}"/>
+    <workbookView xWindow="1560" yWindow="0" windowWidth="21615" windowHeight="15600" xr2:uid="{82D7ECE5-7680-4996-BBC4-E1C76DA2FCFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Korte film kronologisk HD" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="197">
   <si>
     <t>video 1</t>
   </si>
@@ -625,10 +625,46 @@
     <t>Fejlsafskud = 2</t>
   </si>
   <si>
-    <t>Følsomhedsanalyse</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Kort rampe</t>
+  </si>
+  <si>
+    <t>Høj rampe</t>
+  </si>
+  <si>
+    <t>Lav rampe</t>
+  </si>
+  <si>
+    <t>Gennemsnitlig Hoplængde [m]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afvigelser fra gennemsnitlig målt hoplængde </t>
+  </si>
+  <si>
+    <t>Lav</t>
+  </si>
+  <si>
+    <t>Høj</t>
+  </si>
+  <si>
+    <t>lav</t>
+  </si>
+  <si>
+    <t>høj</t>
+  </si>
+  <si>
+    <t>Afvigelse [m]</t>
+  </si>
+  <si>
+    <t>Beregnet hoplængde [m]</t>
+  </si>
+  <si>
+    <t>Afvigelse fra beregnet hoplængde [%]</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -642,7 +678,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,8 +734,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,6 +782,30 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -799,7 +867,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
@@ -815,12 +883,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -841,19 +903,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1278,7 +1347,7 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
-        <item x="0"/>
+        <item n="Kort rampe" x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -1356,8 +1425,8 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
-        <item x="0"/>
-        <item x="1"/>
+        <item n="lav" x="0"/>
+        <item n="høj" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1740,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC915457-4E30-4B15-93C6-AD6C55E9FEE3}">
-  <dimension ref="A1:AC39"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,17 +1822,21 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12" style="24" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="24"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" customWidth="1"/>
-    <col min="15" max="20" width="12.7109375" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" customWidth="1"/>
-    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="29" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" customWidth="1"/>
+    <col min="22" max="22" width="18.85546875" customWidth="1"/>
+    <col min="23" max="24" width="12.7109375" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" customWidth="1"/>
+    <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="33" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -1782,11 +1855,11 @@
       <c r="F1" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>159</v>
       </c>
@@ -1796,10 +1869,10 @@
       <c r="E2" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" t="s">
         <v>173</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" t="s">
         <v>172</v>
       </c>
       <c r="M2" t="s">
@@ -1809,7 +1882,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -1830,22 +1903,22 @@
         <f>E3/COS((45/360)*(2*PI()))</f>
         <v>5.3916892065474249</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="22">
         <v>2</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="23">
         <f>C3-$N$6</f>
         <v>-0.63555555555555543</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="24">
         <f>I3/$N$6</f>
         <v>-0.34251497005988019</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -1866,18 +1939,18 @@
         <f t="shared" ref="F4:F12" si="1">E4/COS((45/360)*(2*PI()))</f>
         <v>6.853496494577306</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="22">
         <v>2</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="23">
         <f t="shared" ref="I4:I12" si="2">C4-$N$6</f>
         <v>3.44444444444445E-2</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="24">
         <f t="shared" ref="J4:J12" si="3">I4/$N$6</f>
         <v>1.8562874251497039E-2</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="13">
         <v>1</v>
       </c>
       <c r="M4" s="10" t="s">
@@ -1892,11 +1965,11 @@
       <c r="R4" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="U4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y4" s="29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -1917,25 +1990,25 @@
         <f t="shared" si="1"/>
         <v>6.9622821532213894</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="22">
         <v>2</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="23">
         <f t="shared" si="2"/>
         <v>6.4444444444444526E-2</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="24">
         <f t="shared" si="3"/>
         <v>3.4730538922155739E-2</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="13">
         <v>1</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>167</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>156</v>
@@ -1944,13 +2017,17 @@
         <v>167</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>120</v>
       </c>
@@ -1971,11 +2048,11 @@
         <f t="shared" si="1"/>
         <v>5.3740115370177604</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
       <c r="K6">
         <v>1</v>
       </c>
@@ -1997,35 +2074,39 @@
       <c r="S6" s="12">
         <v>1</v>
       </c>
-      <c r="U6" s="17" t="s">
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="Y6" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="V6" s="23" t="s">
+      <c r="Z6" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="W6" s="18" t="s">
+      <c r="AA6" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="AB6" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="Y6" s="19" t="s">
+      <c r="AC6" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="Z6" s="20">
+      <c r="AD6" s="18">
         <v>0</v>
       </c>
-      <c r="AA6" s="21" t="s">
+      <c r="AE6" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" s="21" t="s">
+      <c r="AF6" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="AC6" s="18" t="s">
+      <c r="AG6" s="16" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -2046,18 +2127,18 @@
         <f t="shared" si="1"/>
         <v>6.5128256161918854</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="22">
         <v>2</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="23">
         <f t="shared" si="2"/>
         <v>-0.1055555555555554</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="24">
         <f t="shared" si="3"/>
         <v>-5.6886227544910101E-2</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="13">
         <v>1</v>
       </c>
       <c r="M7" s="11">
@@ -2074,30 +2155,34 @@
       <c r="S7" s="12">
         <v>6</v>
       </c>
-      <c r="U7" t="s">
-        <v>155</v>
-      </c>
-      <c r="V7" s="22">
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="Y7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z7" s="20">
         <v>2</v>
       </c>
-      <c r="W7" s="16">
+      <c r="AA7" s="14">
         <f>K3</f>
         <v>1</v>
       </c>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16">
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14">
         <f>K7</f>
         <v>1</v>
       </c>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16">
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14">
         <f>K4+K5+K8+K9+K10+K11+K12</f>
         <v>7</v>
       </c>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -2118,18 +2203,18 @@
         <f t="shared" si="1"/>
         <v>7.0710678118654746</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="22">
         <v>2</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="23">
         <f t="shared" si="2"/>
         <v>0.1444444444444446</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="24">
         <f t="shared" si="3"/>
         <v>7.7844311377245595E-2</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="13">
         <v>1</v>
       </c>
       <c r="M8" s="11">
@@ -2150,27 +2235,31 @@
       <c r="S8" s="12">
         <v>11</v>
       </c>
-      <c r="V8" s="22">
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="Z8" s="20">
         <v>6</v>
       </c>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16">
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14">
         <f>K33+K35</f>
         <v>2</v>
       </c>
-      <c r="Y8" s="16">
+      <c r="AC8" s="14">
         <f>K32</f>
         <v>1</v>
       </c>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16">
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14">
         <f>K34+K36+K37+K38+K39</f>
         <v>5</v>
       </c>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-    </row>
-    <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+    </row>
+    <row r="9" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -2191,18 +2280,18 @@
         <f t="shared" si="1"/>
         <v>7.0710678118654746</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="22">
         <v>2</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="23">
         <f t="shared" si="2"/>
         <v>9.4444444444444553E-2</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="24">
         <f t="shared" si="3"/>
         <v>5.0898203592814432E-2</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="13">
         <v>1</v>
       </c>
       <c r="M9" s="11" t="s">
@@ -2223,40 +2312,44 @@
       <c r="S9" s="12">
         <v>1</v>
       </c>
-      <c r="U9" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="V9" s="29"/>
-      <c r="W9" s="30">
-        <f>SUM(W7:W8)</f>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="Y9" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="27">
+        <f>SUM(AA7:AA8)</f>
         <v>1</v>
       </c>
-      <c r="X9" s="30">
-        <f t="shared" ref="X9:AC9" si="4">SUM(X7:X8)</f>
+      <c r="AB9" s="27">
+        <f t="shared" ref="AB9:AG9" si="4">SUM(AB7:AB8)</f>
         <v>2</v>
       </c>
-      <c r="Y9" s="30">
+      <c r="AC9" s="27">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="Z9" s="30">
+      <c r="AD9" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="30">
+      <c r="AE9" s="27">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="AB9" s="30">
+      <c r="AF9" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="30">
+      <c r="AG9" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -2277,31 +2370,30 @@
         <f t="shared" si="1"/>
         <v>6.8986027432833898</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="22">
         <v>2</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="23">
         <f t="shared" si="2"/>
         <v>0.1444444444444446</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="24">
         <f t="shared" si="3"/>
         <v>7.7844311377245595E-2</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="13">
         <v>1</v>
       </c>
-      <c r="U10" s="31"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -2322,31 +2414,30 @@
         <f t="shared" si="1"/>
         <v>6.9330957569998066</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="22">
         <v>2</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="23">
         <f t="shared" si="2"/>
         <v>0.15444444444444438</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="24">
         <f t="shared" si="3"/>
         <v>8.3233532934131715E-2</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="13">
         <v>1</v>
       </c>
-      <c r="U11" s="31"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -2367,49 +2458,49 @@
         <f t="shared" si="1"/>
         <v>6.9296464556281645</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="22">
         <v>2</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="23">
         <f t="shared" si="2"/>
         <v>0.10444444444444456</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="24">
         <f t="shared" si="3"/>
         <v>5.6287425149700664E-2</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="13">
         <v>1</v>
       </c>
-      <c r="U12" s="17" t="s">
+      <c r="Y12" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="V12" s="23" t="s">
+      <c r="Z12" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="W12" s="18" t="s">
+      <c r="AA12" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="X12" s="19" t="s">
+      <c r="AB12" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="Y12" s="19" t="s">
+      <c r="AC12" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="Z12" s="20">
+      <c r="AD12" s="18">
         <v>0</v>
       </c>
-      <c r="AA12" s="21" t="s">
+      <c r="AE12" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="AB12" s="21" t="s">
+      <c r="AF12" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="AC12" s="18" t="s">
+      <c r="AG12" s="16" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -2430,40 +2521,40 @@
         <f>E13/COS((39/360)*(2*PI()))</f>
         <v>4.8713040708812763</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13">
         <v>2</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="23">
         <f>C13-$O$6</f>
         <v>0</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="24">
         <f>I13/$O$6</f>
         <v>0</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="13">
         <v>1</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="U13" t="s">
-        <v>156</v>
-      </c>
-      <c r="V13" s="22">
+      <c r="Y13" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z13" s="20">
         <v>2</v>
       </c>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16">
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14">
         <f>K13</f>
         <v>1</v>
       </c>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -2484,38 +2575,38 @@
         <f t="shared" ref="F14:F31" si="5">E14/COS((39/360)*(2*PI()))</f>
         <v>6.2445684815403704</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="23">
         <f>C14-$O$7</f>
         <v>-1.1666666666666936E-2</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="24">
         <f>I14/$O$7</f>
         <v>-7.0210631895688677E-3</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="13">
         <v>1</v>
       </c>
-      <c r="V14" s="22">
+      <c r="Z14" s="20">
         <v>4</v>
       </c>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16">
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14">
         <f>K14+K18</f>
         <v>2</v>
       </c>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16">
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14">
         <f>K15+K16+K17+K19</f>
         <v>4</v>
       </c>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -2536,44 +2627,44 @@
         <f t="shared" si="5"/>
         <v>6.1396813572616837</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15">
         <v>4</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="23">
         <f t="shared" ref="I15:I19" si="6">C15-$O$7</f>
         <v>8.3333333333330817E-3</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="24">
         <f t="shared" ref="J15:J19" si="7">I15/$O$7</f>
         <v>5.0150451354060667E-3</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="13">
         <v>1</v>
       </c>
-      <c r="V15" s="22">
+      <c r="Z15" s="20">
         <v>6</v>
       </c>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16">
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14">
         <f>K28</f>
         <v>1</v>
       </c>
-      <c r="Y15" s="16">
+      <c r="AC15" s="14">
         <f>K20+K23+K24+K25+K29+K31</f>
         <v>6</v>
       </c>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16">
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14">
         <f>K26+K22</f>
         <v>2</v>
       </c>
-      <c r="AB15" s="16">
+      <c r="AF15" s="14">
         <f>K21+K27</f>
         <v>2</v>
       </c>
-      <c r="AC15" s="16"/>
-    </row>
-    <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG15" s="14"/>
+    </row>
+    <row r="16" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -2594,54 +2685,54 @@
         <f t="shared" si="5"/>
         <v>6.1764459162872027</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="23">
         <f>C16-$O$7</f>
         <v>1.8333333333333091E-2</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="24">
         <f t="shared" si="7"/>
         <v>1.1033099297893534E-2</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="13">
         <v>1</v>
       </c>
-      <c r="U16" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="V16" s="29"/>
-      <c r="W16" s="30">
-        <f>SUM(W13:W15)</f>
+      <c r="Y16" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="27">
+        <f>SUM(AA13:AA15)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="30">
-        <f t="shared" ref="X16:AC16" si="8">SUM(X13:X15)</f>
+      <c r="AB16" s="27">
+        <f t="shared" ref="AB16:AG16" si="8">SUM(AB13:AB15)</f>
         <v>1</v>
       </c>
-      <c r="Y16" s="30">
+      <c r="AC16" s="27">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="Z16" s="30">
+      <c r="AD16" s="27">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AA16" s="30">
+      <c r="AE16" s="27">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="AB16" s="30">
+      <c r="AF16" s="27">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AC16" s="30">
+      <c r="AG16" s="27">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -2662,22 +2753,22 @@
         <f t="shared" si="5"/>
         <v>6.1764459162872027</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17">
         <v>4</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="23">
         <f t="shared" si="6"/>
         <v>1.8333333333333091E-2</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="24">
         <f t="shared" si="7"/>
         <v>1.1033099297893534E-2</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -2698,25 +2789,44 @@
         <f t="shared" si="5"/>
         <v>6.1218561165220384</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18">
         <v>4</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="23">
         <f t="shared" si="6"/>
         <v>-9.1666666666666785E-2</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="24">
         <f t="shared" si="7"/>
         <v>-5.5165496489468467E-2</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="13">
         <v>1</v>
       </c>
-      <c r="U18" t="s">
+      <c r="M18" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="T18" s="31"/>
+      <c r="U18" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="V18" s="30"/>
+      <c r="W18" s="33"/>
+      <c r="Y18" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -2737,22 +2847,52 @@
         <f t="shared" si="5"/>
         <v>6.5094895686360221</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19">
         <v>4</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="23">
         <f t="shared" si="6"/>
         <v>5.8333333333333126E-2</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="24">
         <f t="shared" si="7"/>
         <v>3.5105315947843399E-2</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>180</v>
+      </c>
+      <c r="N19" t="s">
+        <v>186</v>
+      </c>
+      <c r="O19" t="s">
+        <v>185</v>
+      </c>
+      <c r="P19" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>186</v>
+      </c>
+      <c r="R19" t="s">
+        <v>185</v>
+      </c>
+      <c r="S19" t="s">
+        <v>186</v>
+      </c>
+      <c r="T19" t="s">
+        <v>185</v>
+      </c>
+      <c r="U19" t="s">
+        <v>186</v>
+      </c>
+      <c r="V19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -2773,22 +2913,56 @@
         <f t="shared" si="5"/>
         <v>8.0422472868322963</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20">
         <v>6</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="23">
         <f>C20-$O$8</f>
         <v>-0.13636363636363669</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="24">
         <f>I20/$O$8</f>
         <v>-4.724409448818908E-2</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1.8555555555555554</v>
+      </c>
+      <c r="O20" s="7">
+        <v>1.06</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>3.96</v>
+      </c>
+      <c r="R20">
+        <v>3.6949999999999998</v>
+      </c>
+      <c r="S20" s="7">
+        <f>Q20-N20</f>
+        <v>2.1044444444444448</v>
+      </c>
+      <c r="T20" s="7">
+        <f>R20-O20</f>
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="U20" s="32">
+        <f>S20/Q20</f>
+        <v>0.53142536475869817</v>
+      </c>
+      <c r="V20" s="32">
+        <f>T20/R20</f>
+        <v>0.71312584573748306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -2809,22 +2983,52 @@
         <f t="shared" si="5"/>
         <v>8.8464720155155252</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21">
         <v>6</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="23">
         <f t="shared" ref="I21:I29" si="9">C21-$O$8</f>
         <v>0.41363636363636314</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="24">
         <f t="shared" ref="J21:J31" si="10">I21/$O$8</f>
         <v>0.14330708661417305</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7">
+        <v>1.6616666666666668</v>
+      </c>
+      <c r="P21">
+        <v>4</v>
+      </c>
+      <c r="Q21">
+        <v>8.0250000000000004</v>
+      </c>
+      <c r="R21">
+        <v>7.69</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="T21" s="7">
+        <f t="shared" ref="T21:T22" si="11">R21-O21</f>
+        <v>6.0283333333333333</v>
+      </c>
+      <c r="U21" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="V21" s="32">
+        <f t="shared" ref="V21:V22" si="12">T21/R21</f>
+        <v>0.78391850888599912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -2845,22 +3049,56 @@
         <f t="shared" si="5"/>
         <v>8.3919102123467422</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22">
         <v>6</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="23">
         <f t="shared" si="9"/>
         <v>0.11363636363636331</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="24">
         <f t="shared" si="10"/>
         <v>3.9370078740157362E-2</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3.21</v>
+      </c>
+      <c r="O22" s="7">
+        <v>2.8863636363636367</v>
+      </c>
+      <c r="P22">
+        <v>6</v>
+      </c>
+      <c r="Q22">
+        <v>12.089</v>
+      </c>
+      <c r="R22">
+        <v>11.670999999999999</v>
+      </c>
+      <c r="S22" s="7">
+        <f t="shared" ref="S22" si="13">Q22-N22</f>
+        <v>8.8790000000000013</v>
+      </c>
+      <c r="T22" s="7">
+        <f t="shared" si="11"/>
+        <v>8.7846363636363627</v>
+      </c>
+      <c r="U22" s="32">
+        <f t="shared" ref="U22" si="14">S22/Q22</f>
+        <v>0.73446935230374732</v>
+      </c>
+      <c r="V22" s="32">
+        <f t="shared" si="12"/>
+        <v>0.75268926087193588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -2881,22 +3119,22 @@
         <f t="shared" si="5"/>
         <v>8.1494772506567266</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23">
         <v>6</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="23">
         <f t="shared" si="9"/>
         <v>-3.6363636363636598E-2</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="24">
         <f t="shared" si="10"/>
         <v>-1.2598425196850473E-2</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -2917,22 +3155,22 @@
         <f t="shared" si="5"/>
         <v>7.9300298828299844</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24">
         <v>6</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="23">
         <f t="shared" si="9"/>
         <v>-0.23636363636363678</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="24">
         <f t="shared" si="10"/>
         <v>-8.1889763779527697E-2</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -2953,22 +3191,22 @@
         <f t="shared" si="5"/>
         <v>8.4985980631083606</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25">
         <v>6</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="23">
         <f t="shared" si="9"/>
         <v>-4.6363636363636829E-2</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="24">
         <f t="shared" si="10"/>
         <v>-1.6062992125984412E-2</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -2989,22 +3227,22 @@
         <f t="shared" si="5"/>
         <v>8.2638558787361198</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26">
         <v>6</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="23">
         <f t="shared" si="9"/>
         <v>3.6363636363634377E-3</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="24">
         <f t="shared" si="10"/>
         <v>1.2598425196849704E-3</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -3025,22 +3263,22 @@
         <f t="shared" si="5"/>
         <v>8.8704276457316222</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27">
         <v>6</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="23">
         <f t="shared" si="9"/>
         <v>0.35363636363636353</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="24">
         <f t="shared" si="10"/>
         <v>0.12251968503937002</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -3061,22 +3299,22 @@
         <f t="shared" si="5"/>
         <v>7.6592831303164726</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28">
         <v>6</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="23">
         <f t="shared" si="9"/>
         <v>-0.38636363636363669</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="24">
         <f t="shared" si="10"/>
         <v>-0.13385826771653553</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -3097,22 +3335,22 @@
         <f t="shared" si="5"/>
         <v>8.2352612217162697</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29">
         <v>6</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="23">
         <f t="shared" si="9"/>
         <v>-6.3636363636367932E-3</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="24">
         <f t="shared" si="10"/>
         <v>-2.2047244094489673E-3</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>144</v>
       </c>
@@ -3133,16 +3371,16 @@
         <f t="shared" si="5"/>
         <v>6.8401429555373632</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" t="s">
         <v>165</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
       <c r="K30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -3163,22 +3401,22 @@
         <f t="shared" si="5"/>
         <v>8.3346926427171066</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31">
         <v>6</v>
       </c>
-      <c r="I31" s="26">
-        <f t="shared" ref="I31" si="11">C31-$O$8</f>
+      <c r="I31" s="23">
+        <f t="shared" ref="I31" si="15">C31-$O$8</f>
         <v>-3.6363636363636598E-2</v>
       </c>
-      <c r="J31" s="27">
+      <c r="J31" s="24">
         <f t="shared" si="10"/>
         <v>-1.2598425196850473E-2</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -3196,21 +3434,21 @@
         <v>6.0204081632653068</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" ref="F32:F39" si="12">E32/COS((45/360)*(2*PI()))</f>
+        <f t="shared" ref="F32:F39" si="16">E32/COS((45/360)*(2*PI()))</f>
         <v>8.5141428755114905</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32">
         <v>6</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="23">
         <f>C32-$N$8</f>
         <v>-0.25999999999999979</v>
       </c>
-      <c r="J32" s="28">
+      <c r="J32" s="25">
         <f>I32/$N$8</f>
         <v>-8.0996884735202432E-2</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3232,21 +3470,21 @@
         <v>5.8085106382978724</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8.2144745218692545</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33">
         <v>6</v>
       </c>
-      <c r="I33" s="26">
-        <f t="shared" ref="I33:I39" si="13">C33-$N$8</f>
+      <c r="I33" s="23">
+        <f t="shared" ref="I33:I39" si="17">C33-$N$8</f>
         <v>-0.48</v>
       </c>
-      <c r="J33" s="28">
-        <f t="shared" ref="J33:J39" si="14">I33/$N$8</f>
+      <c r="J33" s="25">
+        <f t="shared" ref="J33:J39" si="18">I33/$N$8</f>
         <v>-0.14953271028037382</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3268,21 +3506,21 @@
         <v>6.415094339622641</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.0723134189972114</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34">
         <v>6</v>
       </c>
-      <c r="I34" s="26">
-        <f t="shared" si="13"/>
+      <c r="I34" s="23">
+        <f t="shared" si="17"/>
         <v>0.18999999999999995</v>
       </c>
-      <c r="J34" s="28">
-        <f t="shared" si="14"/>
+      <c r="J34" s="25">
+        <f t="shared" si="18"/>
         <v>5.9190031152647961E-2</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3304,21 +3542,21 @@
         <v>5.7446808510638308</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8.1242055710794823</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35">
         <v>6</v>
       </c>
-      <c r="I35" s="26">
-        <f t="shared" si="13"/>
+      <c r="I35" s="23">
+        <f t="shared" si="17"/>
         <v>-0.50999999999999979</v>
       </c>
-      <c r="J35" s="28">
-        <f t="shared" si="14"/>
+      <c r="J35" s="25">
+        <f t="shared" si="18"/>
         <v>-0.15887850467289713</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K35" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3340,21 +3578,21 @@
         <v>6.3773584905660377</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.0189468694736998</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36">
         <v>6</v>
       </c>
-      <c r="I36" s="26">
-        <f t="shared" si="13"/>
+      <c r="I36" s="23">
+        <f t="shared" si="17"/>
         <v>0.16999999999999993</v>
       </c>
-      <c r="J36" s="28">
-        <f t="shared" si="14"/>
+      <c r="J36" s="25">
+        <f t="shared" si="18"/>
         <v>5.2959501557632377E-2</v>
       </c>
-      <c r="K36" s="15">
+      <c r="K36" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3376,21 +3614,21 @@
         <v>6.5471698113207548</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.2590963423295083</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37">
         <v>6</v>
       </c>
-      <c r="I37" s="26">
-        <f t="shared" si="13"/>
+      <c r="I37" s="23">
+        <f t="shared" si="17"/>
         <v>0.26000000000000023</v>
       </c>
-      <c r="J37" s="28">
-        <f t="shared" si="14"/>
+      <c r="J37" s="25">
+        <f t="shared" si="18"/>
         <v>8.0996884735202571E-2</v>
       </c>
-      <c r="K37" s="15">
+      <c r="K37" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3412,21 +3650,21 @@
         <v>6.7692307692307692</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.5731379606794125</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38">
         <v>6</v>
       </c>
-      <c r="I38" s="26">
-        <f t="shared" si="13"/>
+      <c r="I38" s="23">
+        <f t="shared" si="17"/>
         <v>0.31000000000000005</v>
       </c>
-      <c r="J38" s="28">
-        <f t="shared" si="14"/>
+      <c r="J38" s="25">
+        <f t="shared" si="18"/>
         <v>9.6573208722741458E-2</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K38" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3448,21 +3686,21 @@
         <v>6.4181818181818171</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.0766797730491344</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39">
         <v>6</v>
       </c>
-      <c r="I39" s="26">
-        <f t="shared" si="13"/>
+      <c r="I39" s="23">
+        <f t="shared" si="17"/>
         <v>0.31999999999999984</v>
       </c>
-      <c r="J39" s="28">
-        <f t="shared" si="14"/>
+      <c r="J39" s="25">
+        <f t="shared" si="18"/>
         <v>9.9688473520249177E-2</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K39" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6930,17 +7168,17 @@
       </c>
     </row>
     <row r="22" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
       <c r="K22" s="2">
         <v>0.6</v>
       </c>
@@ -7024,15 +7262,15 @@
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
       <c r="K23" s="2">
         <v>0.63333329999999999</v>
       </c>
@@ -7116,15 +7354,15 @@
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
       <c r="K24" s="5">
         <v>0.66666669999999995</v>
       </c>
@@ -7208,15 +7446,15 @@
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
       <c r="K25" s="2">
         <v>0.7</v>
       </c>
@@ -7294,15 +7532,15 @@
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
       <c r="U26" s="2">
         <v>0.73333329999999997</v>
       </c>
@@ -10241,17 +10479,17 @@
       </c>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
       <c r="U16" s="3">
         <v>0.4</v>
       </c>
@@ -10362,26 +10600,26 @@
       </c>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="K17" s="14" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="K17" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
       <c r="U17" s="3">
         <v>0.43333329999999998</v>
       </c>
@@ -10492,15 +10730,15 @@
       </c>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
       <c r="U18" s="6">
         <v>0.46666669999999999</v>
       </c>

--- a/Mekanisk produktanalyse/Projekt 2/Film/AnalyseOgTrackerData.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/Film/AnalyseOgTrackerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s224870_dtu_dk/Documents/Skrivebord/DTU-projekter/Mekanisk produktanalyse/Projekt 2/Film/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="8_{BF753F7E-9BF5-4DF5-A698-950D07E92F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43E5C860-AFDC-4A35-BC4B-46379D4373E3}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="8_{BF753F7E-9BF5-4DF5-A698-950D07E92F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B19AA92-B099-4B1E-AE31-FC3D5814A53F}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="0" windowWidth="21615" windowHeight="15600" xr2:uid="{82D7ECE5-7680-4996-BBC4-E1C76DA2FCFB}"/>
+    <workbookView xWindow="1560" yWindow="0" windowWidth="54315" windowHeight="15600" xr2:uid="{82D7ECE5-7680-4996-BBC4-E1C76DA2FCFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Korte film kronologisk HD" sheetId="4" r:id="rId1"/>
@@ -1812,7 +1812,7 @@
   <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
